--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/bemonsteringsinstrument/bemonsteringsinstrument.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/bemonsteringsinstrument/bemonsteringsinstrument.xlsx
@@ -463,7 +463,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.collection.bemonsteringsinstrument.bemonsteringsinstrumenten</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E2" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualock|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/avegaarbooras|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/diamantboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubbelwandigekernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/edelmanboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkelwandigkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/geoprobe|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/graafmachine|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/grijpboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/hamerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/handboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorhsas|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorlin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lansboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lepelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthamer|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthevel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/piston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/platavegaarboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pvcaangescherpt30mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramkernboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/riversideboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rollenbeitel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/schep|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slagboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spade|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spiraalboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spoelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trilboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/tripkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trippelwandigekernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/veenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vibrocore|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
@@ -513,7 +513,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ackermangedrukt</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E3" t="str">
         <v>null</v>
@@ -534,7 +534,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus</v>
       </c>
       <c r="K3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L3" t="str">
         <v>null</v>
@@ -563,7 +563,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ackermangeslagen</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E4" t="str">
         <v>null</v>
@@ -584,7 +584,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus</v>
       </c>
       <c r="K4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L4" t="str">
         <v>null</v>
@@ -613,7 +613,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ackermansteekbus</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E5" t="str">
         <v>null</v>
@@ -634,7 +634,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus</v>
       </c>
       <c r="K5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L5" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangeslagen</v>
@@ -663,7 +663,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.aqualock</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E6" t="str">
         <v>null</v>
@@ -684,7 +684,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="K6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L6" t="str">
         <v>null</v>
@@ -713,7 +713,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.aqualockpiston</v>
       </c>
       <c r="D7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E7" t="str">
         <v>null</v>
@@ -734,7 +734,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/piston</v>
       </c>
       <c r="K7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L7" t="str">
         <v>null</v>
@@ -763,7 +763,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.avegaarbooras</v>
       </c>
       <c r="D8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E8" t="str">
         <v>null</v>
@@ -784,7 +784,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L8" t="str">
         <v>null</v>
@@ -813,7 +813,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.balgpomp</v>
       </c>
       <c r="D9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E9" t="str">
         <v>null</v>
@@ -834,7 +834,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
       </c>
       <c r="K9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L9" t="str">
         <v>null</v>
@@ -863,7 +863,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.boor</v>
       </c>
       <c r="D10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E10" t="str">
         <v>null</v>
@@ -884,7 +884,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/avegaarbooras|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/diamantboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/edelmanboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/geoprobe|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/grijpboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/hamerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/handboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorhsas|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorlin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lansboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lepelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthamer|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthevel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/platavegaarboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramkernboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/riversideboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rollenbeitel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slagboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spiraalboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spoelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trilboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/tripkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/veenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vibrocore|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigerboor</v>
       </c>
       <c r="K10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L10" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/avegaarbooras|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/diamantboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/edelmanboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/geoprobe|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/grijpboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/hamerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/handboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorhsas|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lansboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lepelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthamer|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthevel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/platavegaarboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/riversideboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rollenbeitel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slagboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spiraalboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spoelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trilboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/veenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vibrocore|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigerboor</v>
@@ -913,7 +913,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.bovcentrifugaalpomp</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E11" t="str">
         <v>null</v>
@@ -934,7 +934,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="K11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L11" t="str">
         <v>null</v>
@@ -963,7 +963,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.buis</v>
       </c>
       <c r="D12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E12" t="str">
         <v>null</v>
@@ -984,7 +984,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualock|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubbelwandigekernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkelwandigkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/piston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pvcaangescherpt30mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trippelwandigekernbuis</v>
       </c>
       <c r="K12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L12" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualock|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubbelwandigekernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkelwandigkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/piston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pvcaangescherpt30mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trippelwandigekernbuis</v>
@@ -1013,7 +1013,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.diamantboor</v>
       </c>
       <c r="D13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E13" t="str">
         <v>null</v>
@@ -1034,7 +1034,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L13" t="str">
         <v>null</v>
@@ -1063,7 +1063,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.dikwandig</v>
       </c>
       <c r="D14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E14" t="str">
         <v>null</v>
@@ -1084,7 +1084,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus</v>
       </c>
       <c r="K14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L14" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandiggeslagen</v>
@@ -1113,7 +1113,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.dikwandigepiston</v>
       </c>
       <c r="D15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E15" t="str">
         <v>null</v>
@@ -1134,7 +1134,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/piston</v>
       </c>
       <c r="K15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L15" t="str">
         <v>null</v>
@@ -1163,7 +1163,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.dikwandiggeslagen</v>
       </c>
       <c r="D16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E16" t="str">
         <v>null</v>
@@ -1184,7 +1184,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus</v>
       </c>
       <c r="K16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L16" t="str">
         <v>null</v>
@@ -1213,7 +1213,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.dompelpomp12v</v>
       </c>
       <c r="D17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E17" t="str">
         <v>null</v>
@@ -1234,7 +1234,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
       </c>
       <c r="K17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L17" t="str">
         <v>null</v>
@@ -1263,7 +1263,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.dompelpompond</v>
       </c>
       <c r="D18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E18" t="str">
         <v>null</v>
@@ -1284,7 +1284,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
       </c>
       <c r="K18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L18" t="str">
         <v>null</v>
@@ -1313,7 +1313,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.dubbelwandigekernbuis</v>
       </c>
       <c r="D19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E19" t="str">
         <v>null</v>
@@ -1334,7 +1334,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="K19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L19" t="str">
         <v>null</v>
@@ -1363,7 +1363,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.dubkernbuis</v>
       </c>
       <c r="D20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E20" t="str">
         <v>null</v>
@@ -1384,7 +1384,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
       </c>
       <c r="K20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L20" t="str">
         <v>null</v>
@@ -1413,7 +1413,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.dubkleppomp</v>
       </c>
       <c r="D21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E21" t="str">
         <v>null</v>
@@ -1434,7 +1434,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
       </c>
       <c r="K21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L21" t="str">
         <v>null</v>
@@ -1463,7 +1463,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.dunwandig</v>
       </c>
       <c r="D22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E22" t="str">
         <v>null</v>
@@ -1484,7 +1484,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus</v>
       </c>
       <c r="K22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L22" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggeslagen</v>
@@ -1513,7 +1513,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.dunwandigepiston</v>
       </c>
       <c r="D23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E23" t="str">
         <v>null</v>
@@ -1534,7 +1534,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/piston</v>
       </c>
       <c r="K23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L23" t="str">
         <v>null</v>
@@ -1563,7 +1563,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.dunwandiggedrukt</v>
       </c>
       <c r="D24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E24" t="str">
         <v>null</v>
@@ -1584,7 +1584,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus</v>
       </c>
       <c r="K24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L24" t="str">
         <v>null</v>
@@ -1613,7 +1613,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.dunwandiggeslagen</v>
       </c>
       <c r="D25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E25" t="str">
         <v>null</v>
@@ -1634,7 +1634,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus</v>
       </c>
       <c r="K25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L25" t="str">
         <v>null</v>
@@ -1663,7 +1663,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.edelmanboor</v>
       </c>
       <c r="D26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E26" t="str">
         <v>null</v>
@@ -1684,7 +1684,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L26" t="str">
         <v>null</v>
@@ -1713,7 +1713,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.enkelwandigkernbuis</v>
       </c>
       <c r="D27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E27" t="str">
         <v>null</v>
@@ -1734,7 +1734,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="K27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L27" t="str">
         <v>null</v>
@@ -1763,7 +1763,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.enkkernbuis</v>
       </c>
       <c r="D28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E28" t="str">
         <v>null</v>
@@ -1784,7 +1784,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
       </c>
       <c r="K28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L28" t="str">
         <v>null</v>
@@ -1813,7 +1813,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.geoprobe</v>
       </c>
       <c r="D29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E29" t="str">
         <v>null</v>
@@ -1834,7 +1834,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L29" t="str">
         <v>null</v>
@@ -1863,7 +1863,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.graafmachine</v>
       </c>
       <c r="D30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E30" t="str">
         <v>null</v>
@@ -1884,7 +1884,7 @@
         <v>null</v>
       </c>
       <c r="K30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L30" t="str">
         <v>null</v>
@@ -1913,7 +1913,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.grijpboor</v>
       </c>
       <c r="D31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E31" t="str">
         <v>null</v>
@@ -1934,7 +1934,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L31" t="str">
         <v>null</v>
@@ -1963,7 +1963,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.hamerboor</v>
       </c>
       <c r="D32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E32" t="str">
         <v>null</v>
@@ -1984,7 +1984,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L32" t="str">
         <v>null</v>
@@ -2013,7 +2013,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.handboor</v>
       </c>
       <c r="D33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E33" t="str">
         <v>null</v>
@@ -2034,7 +2034,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L33" t="str">
         <v>null</v>
@@ -2063,7 +2063,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.holavegaarboorhsas</v>
       </c>
       <c r="D34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E34" t="str">
         <v>null</v>
@@ -2084,7 +2084,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorlin</v>
       </c>
       <c r="K34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L34" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorlin</v>
@@ -2113,7 +2113,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.holavegaarboorlin</v>
       </c>
       <c r="D35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E35" t="str">
         <v>null</v>
@@ -2134,7 +2134,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorhsas</v>
       </c>
       <c r="K35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L35" t="str">
         <v>null</v>
@@ -2163,7 +2163,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.kerboor</v>
       </c>
       <c r="D36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E36" t="str">
         <v>null</v>
@@ -2184,7 +2184,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramkernboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/tripkernbuis</v>
       </c>
       <c r="K36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L36" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramkernboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/tripkernbuis</v>
@@ -2213,7 +2213,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.kopeckysteekset100cm3</v>
       </c>
       <c r="D37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E37" t="str">
         <v>null</v>
@@ -2234,7 +2234,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring</v>
       </c>
       <c r="K37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L37" t="str">
         <v>null</v>
@@ -2263,7 +2263,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.kraan</v>
       </c>
       <c r="D38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E38" t="str">
         <v>null</v>
@@ -2284,7 +2284,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="K38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L38" t="str">
         <v>null</v>
@@ -2313,7 +2313,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.lansboor</v>
       </c>
       <c r="D39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E39" t="str">
         <v>null</v>
@@ -2334,7 +2334,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L39" t="str">
         <v>null</v>
@@ -2363,7 +2363,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.lepelboor</v>
       </c>
       <c r="D40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E40" t="str">
         <v>null</v>
@@ -2384,7 +2384,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L40" t="str">
         <v>null</v>
@@ -2413,7 +2413,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.luchthamer</v>
       </c>
       <c r="D41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E41" t="str">
         <v>null</v>
@@ -2434,7 +2434,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L41" t="str">
         <v>null</v>
@@ -2463,7 +2463,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.luchthevel</v>
       </c>
       <c r="D42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E42" t="str">
         <v>null</v>
@@ -2484,7 +2484,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L42" t="str">
         <v>null</v>
@@ -2513,7 +2513,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.perspomp</v>
       </c>
       <c r="D43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E43" t="str">
         <v>null</v>
@@ -2534,7 +2534,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang</v>
       </c>
       <c r="K43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L43" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang</v>
@@ -2563,7 +2563,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.piston</v>
       </c>
       <c r="D44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E44" t="str">
         <v>null</v>
@@ -2584,7 +2584,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston</v>
       </c>
       <c r="K44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L44" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston</v>
@@ -2613,7 +2613,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.platavegaarboor</v>
       </c>
       <c r="D45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E45" t="str">
         <v>null</v>
@@ -2634,7 +2634,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L45" t="str">
         <v>null</v>
@@ -2663,7 +2663,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.pomp</v>
       </c>
       <c r="D46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E46" t="str">
         <v>null</v>
@@ -2684,7 +2684,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="K46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L46" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
@@ -2713,7 +2713,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.pulsboor</v>
       </c>
       <c r="D47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E47" t="str">
         <v>null</v>
@@ -2734,7 +2734,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L47" t="str">
         <v>null</v>
@@ -2763,7 +2763,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.pulsslang</v>
       </c>
       <c r="D48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E48" t="str">
         <v>null</v>
@@ -2784,7 +2784,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
       </c>
       <c r="K48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L48" t="str">
         <v>null</v>
@@ -2813,7 +2813,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.pvcaangescherpt30mm</v>
       </c>
       <c r="D49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E49" t="str">
         <v>null</v>
@@ -2834,7 +2834,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="K49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L49" t="str">
         <v>null</v>
@@ -2863,7 +2863,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ramguts</v>
       </c>
       <c r="D50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E50" t="str">
         <v>null</v>
@@ -2884,7 +2884,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin</v>
       </c>
       <c r="K50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L50" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin</v>
@@ -2913,7 +2913,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ramgutslin</v>
       </c>
       <c r="D51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E51" t="str">
         <v>null</v>
@@ -2934,7 +2934,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts</v>
       </c>
       <c r="K51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L51" t="str">
         <v>null</v>
@@ -2963,7 +2963,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ramgutszlin</v>
       </c>
       <c r="D52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E52" t="str">
         <v>null</v>
@@ -2984,7 +2984,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts</v>
       </c>
       <c r="K52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L52" t="str">
         <v>null</v>
@@ -3013,7 +3013,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ramkernboor</v>
       </c>
       <c r="D53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E53" t="str">
         <v>null</v>
@@ -3034,7 +3034,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
       </c>
       <c r="K53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L53" t="str">
         <v>null</v>
@@ -3063,7 +3063,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ring</v>
       </c>
       <c r="D54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E54" t="str">
         <v>null</v>
@@ -3084,7 +3084,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3</v>
       </c>
       <c r="K54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L54" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3</v>
@@ -3113,7 +3113,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.riversideboor</v>
       </c>
       <c r="D55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E55" t="str">
         <v>null</v>
@@ -3134,7 +3134,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L55" t="str">
         <v>null</v>
@@ -3163,7 +3163,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.rollenbeitel</v>
       </c>
       <c r="D56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E56" t="str">
         <v>null</v>
@@ -3184,7 +3184,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L56" t="str">
         <v>null</v>
@@ -3213,7 +3213,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.rvsstrooiselkader25cm</v>
       </c>
       <c r="D57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E57" t="str">
         <v>null</v>
@@ -3234,7 +3234,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader</v>
       </c>
       <c r="K57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L57" t="str">
         <v>null</v>
@@ -3263,7 +3263,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.schep</v>
       </c>
       <c r="D58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E58" t="str">
         <v>null</v>
@@ -3284,7 +3284,7 @@
         <v>null</v>
       </c>
       <c r="K58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L58" t="str">
         <v>null</v>
@@ -3313,7 +3313,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.scheppot</v>
       </c>
       <c r="D59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E59" t="str">
         <v>null</v>
@@ -3334,7 +3334,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="K59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L59" t="str">
         <v>null</v>
@@ -3363,7 +3363,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.slagboor</v>
       </c>
       <c r="D60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E60" t="str">
         <v>null</v>
@@ -3384,7 +3384,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L60" t="str">
         <v>null</v>
@@ -3413,7 +3413,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.slangenpomp</v>
       </c>
       <c r="D61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E61" t="str">
         <v>null</v>
@@ -3434,7 +3434,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="K61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L61" t="str">
         <v>null</v>
@@ -3463,7 +3463,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.spade</v>
       </c>
       <c r="D62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E62" t="str">
         <v>null</v>
@@ -3484,7 +3484,7 @@
         <v>null</v>
       </c>
       <c r="K62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L62" t="str">
         <v>null</v>
@@ -3513,7 +3513,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.spiraalboor</v>
       </c>
       <c r="D63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E63" t="str">
         <v>null</v>
@@ -3534,7 +3534,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L63" t="str">
         <v>null</v>
@@ -3563,7 +3563,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.spoelboor</v>
       </c>
       <c r="D64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E64" t="str">
         <v>null</v>
@@ -3584,7 +3584,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L64" t="str">
         <v>null</v>
@@ -3613,7 +3613,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekbus</v>
       </c>
       <c r="D65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E65" t="str">
         <v>null</v>
@@ -3634,7 +3634,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggeslagen</v>
       </c>
       <c r="K65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L65" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig</v>
@@ -3663,7 +3663,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekguts</v>
       </c>
       <c r="D66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E66" t="str">
         <v>null</v>
@@ -3684,7 +3684,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm</v>
       </c>
       <c r="K66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L66" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm</v>
@@ -3713,7 +3713,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekguts20mm</v>
       </c>
       <c r="D67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E67" t="str">
         <v>null</v>
@@ -3734,7 +3734,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
       </c>
       <c r="K67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L67" t="str">
         <v>null</v>
@@ -3763,7 +3763,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekguts25mm</v>
       </c>
       <c r="D68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E68" t="str">
         <v>null</v>
@@ -3784,7 +3784,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
       </c>
       <c r="K68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L68" t="str">
         <v>null</v>
@@ -3813,7 +3813,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekguts30mm</v>
       </c>
       <c r="D69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E69" t="str">
         <v>null</v>
@@ -3834,7 +3834,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
       </c>
       <c r="K69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L69" t="str">
         <v>null</v>
@@ -3863,7 +3863,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekhuls</v>
       </c>
       <c r="D70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E70" t="str">
         <v>null</v>
@@ -3884,7 +3884,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3</v>
       </c>
       <c r="K70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L70" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3</v>
@@ -3913,7 +3913,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekhuls192cm3</v>
       </c>
       <c r="D71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E71" t="str">
         <v>null</v>
@@ -3934,7 +3934,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls</v>
       </c>
       <c r="K71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L71" t="str">
         <v>null</v>
@@ -3963,7 +3963,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steenboor</v>
       </c>
       <c r="D72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E72" t="str">
         <v>null</v>
@@ -3984,7 +3984,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L72" t="str">
         <v>null</v>
@@ -4013,7 +4013,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.strooiselkader</v>
       </c>
       <c r="D73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E73" t="str">
         <v>null</v>
@@ -4034,7 +4034,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm</v>
       </c>
       <c r="K73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L73" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm</v>
@@ -4063,7 +4063,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.trilboor</v>
       </c>
       <c r="D74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E74" t="str">
         <v>null</v>
@@ -4084,7 +4084,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L74" t="str">
         <v>null</v>
@@ -4113,7 +4113,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.tripkernbuis</v>
       </c>
       <c r="D75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E75" t="str">
         <v>null</v>
@@ -4134,7 +4134,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
       </c>
       <c r="K75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L75" t="str">
         <v>null</v>
@@ -4163,7 +4163,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.trippelwandigekernbuis</v>
       </c>
       <c r="D76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E76" t="str">
         <v>null</v>
@@ -4184,7 +4184,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="K76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L76" t="str">
         <v>null</v>
@@ -4213,7 +4213,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.vacuumpomp</v>
       </c>
       <c r="D77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E77" t="str">
         <v>null</v>
@@ -4234,7 +4234,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="K77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L77" t="str">
         <v>null</v>
@@ -4263,7 +4263,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.veenboor</v>
       </c>
       <c r="D78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E78" t="str">
         <v>null</v>
@@ -4284,7 +4284,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L78" t="str">
         <v>null</v>
@@ -4313,7 +4313,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.vibrocore</v>
       </c>
       <c r="D79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E79" t="str">
         <v>null</v>
@@ -4334,7 +4334,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L79" t="str">
         <v>null</v>
@@ -4363,7 +4363,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.waterfles</v>
       </c>
       <c r="D80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E80" t="str">
         <v>null</v>
@@ -4384,7 +4384,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="K80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L80" t="str">
         <v>null</v>
@@ -4413,7 +4413,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.watermonsternemer</v>
       </c>
       <c r="D81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E81" t="str">
         <v>null</v>
@@ -4434,7 +4434,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap</v>
       </c>
       <c r="K81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L81" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap</v>
@@ -4463,7 +4463,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.watertrap</v>
       </c>
       <c r="D82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E82" t="str">
         <v>null</v>
@@ -4484,7 +4484,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="K82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L82" t="str">
         <v>null</v>
@@ -4513,7 +4513,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.zuigboor</v>
       </c>
       <c r="D83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E83" t="str">
         <v>null</v>
@@ -4534,7 +4534,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L83" t="str">
         <v>null</v>
@@ -4563,7 +4563,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.zuigerboor</v>
       </c>
       <c r="D84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E84" t="str">
         <v>null</v>
@@ -4584,7 +4584,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L84" t="str">
         <v>null</v>
@@ -4613,7 +4613,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.zuigpomp</v>
       </c>
       <c r="D85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E85" t="str">
         <v>null</v>
@@ -4634,7 +4634,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp</v>
       </c>
       <c r="K85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L85" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="B86" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>

--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/bemonsteringsinstrument/bemonsteringsinstrument.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/bemonsteringsinstrument/bemonsteringsinstrument.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -466,7 +466,7 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualock|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/avegaarbooras|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/diamantboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubbelwandigekernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/edelmanboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkelwandigkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/geoprobe|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/graafmachine|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/grijpboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/hamerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/handboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorhsas|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorlin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lansboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lepelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthamer|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthevel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/piston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/platavegaarboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pvcaangescherpt30mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramkernboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/riversideboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rollenbeitel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/schep|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slagboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spade|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spiraalboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spoelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trilboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/tripkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trippelwandigekernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/veenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vibrocore|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualock|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/avegaarbooras|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/diamantboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubbelwandigekernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/edelmanboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkelwandigkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/geoprobe|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/graafmachine|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/grijpboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/hamerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/handboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorhsas|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorlin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckyring|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lansboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lepelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthamer|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthevel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/piston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/platavegaarboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pvcaangescherpt30mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramkernboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/riversideboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rollenbeitel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/schep|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slagboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spade|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spiraalboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spoelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trilboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/tripkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trippelwandigekernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/veenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vibrocore|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="F2" t="str">
         <v>bemonsteringsinstrumenten</v>
@@ -2204,13 +2204,13 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckyring</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.kopeckysteekset100cm3</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.kopeckyring</v>
       </c>
       <c r="D37" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2219,10 +2219,10 @@
         <v>null</v>
       </c>
       <c r="F37" t="str">
-        <v>kopeckysteekset100cm3</v>
+        <v>kopeckyring</v>
       </c>
       <c r="G37" t="str">
-        <v>Kopecky steekset 100cm3</v>
+        <v>Kopeckyring</v>
       </c>
       <c r="H37" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring</v>
@@ -2231,16 +2231,16 @@
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring</v>
       </c>
       <c r="J37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring</v>
       </c>
       <c r="K37" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L37" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3</v>
       </c>
       <c r="M37" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3</v>
       </c>
       <c r="N37" t="str">
         <v>null</v>
@@ -2254,13 +2254,13 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.kraan</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.kopeckysteekset100cm3</v>
       </c>
       <c r="D38" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2269,19 +2269,19 @@
         <v>null</v>
       </c>
       <c r="F38" t="str">
-        <v>kraan</v>
+        <v>kopeckysteekset100cm3</v>
       </c>
       <c r="G38" t="str">
-        <v>Kraan</v>
+        <v>Kopecky steekset 100cm3</v>
       </c>
       <c r="H38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckyring</v>
       </c>
       <c r="I38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckyring|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring</v>
       </c>
       <c r="J38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckyring|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring</v>
       </c>
       <c r="K38" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2304,13 +2304,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lansboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.lansboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.kraan</v>
       </c>
       <c r="D39" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2319,19 +2319,19 @@
         <v>null</v>
       </c>
       <c r="F39" t="str">
-        <v>lansboor</v>
+        <v>kraan</v>
       </c>
       <c r="G39" t="str">
-        <v>Lansboor</v>
+        <v>Kraan</v>
       </c>
       <c r="H39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="I39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="J39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="K39" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2354,13 +2354,13 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lepelboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lansboor</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.lepelboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.lansboor</v>
       </c>
       <c r="D40" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2369,10 +2369,10 @@
         <v>null</v>
       </c>
       <c r="F40" t="str">
-        <v>lepelboor</v>
+        <v>lansboor</v>
       </c>
       <c r="G40" t="str">
-        <v>Lepelboor</v>
+        <v>Lansboor</v>
       </c>
       <c r="H40" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
@@ -2404,13 +2404,13 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthamer</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lepelboor</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.luchthamer</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.lepelboor</v>
       </c>
       <c r="D41" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2419,10 +2419,10 @@
         <v>null</v>
       </c>
       <c r="F41" t="str">
-        <v>luchthamer</v>
+        <v>lepelboor</v>
       </c>
       <c r="G41" t="str">
-        <v>Luchthamer</v>
+        <v>Lepelboor</v>
       </c>
       <c r="H41" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
@@ -2454,13 +2454,13 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthevel</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthamer</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.luchthevel</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.luchthamer</v>
       </c>
       <c r="D42" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2469,10 +2469,10 @@
         <v>null</v>
       </c>
       <c r="F42" t="str">
-        <v>luchthevel</v>
+        <v>luchthamer</v>
       </c>
       <c r="G42" t="str">
-        <v>Luchthevel</v>
+        <v>Luchthamer</v>
       </c>
       <c r="H42" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthevel</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.perspomp</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.luchthevel</v>
       </c>
       <c r="D43" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2519,28 +2519,28 @@
         <v>null</v>
       </c>
       <c r="F43" t="str">
-        <v>perspomp</v>
+        <v>luchthevel</v>
       </c>
       <c r="G43" t="str">
-        <v>Perspomp</v>
+        <v>Luchthevel</v>
       </c>
       <c r="H43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="I43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="J43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K43" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang</v>
+        <v>null</v>
       </c>
       <c r="M43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang</v>
+        <v>null</v>
       </c>
       <c r="N43" t="str">
         <v>null</v>
@@ -2554,13 +2554,13 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/piston</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.piston</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.perspomp</v>
       </c>
       <c r="D44" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2569,28 +2569,28 @@
         <v>null</v>
       </c>
       <c r="F44" t="str">
-        <v>piston</v>
+        <v>perspomp</v>
       </c>
       <c r="G44" t="str">
-        <v>Piston (PS)</v>
+        <v>Perspomp</v>
       </c>
       <c r="H44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
       </c>
       <c r="I44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
       </c>
       <c r="J44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang</v>
       </c>
       <c r="K44" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang</v>
       </c>
       <c r="M44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang</v>
       </c>
       <c r="N44" t="str">
         <v>null</v>
@@ -2604,13 +2604,13 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/platavegaarboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/piston</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.platavegaarboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.piston</v>
       </c>
       <c r="D45" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2619,28 +2619,28 @@
         <v>null</v>
       </c>
       <c r="F45" t="str">
-        <v>platavegaarboor</v>
+        <v>piston</v>
       </c>
       <c r="G45" t="str">
-        <v>Platte avegaarboor</v>
+        <v>Piston (PS)</v>
       </c>
       <c r="H45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="I45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="J45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston</v>
       </c>
       <c r="K45" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L45" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston</v>
       </c>
       <c r="M45" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston</v>
       </c>
       <c r="N45" t="str">
         <v>null</v>
@@ -2654,13 +2654,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/platavegaarboor</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.pomp</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.platavegaarboor</v>
       </c>
       <c r="D46" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2669,28 +2669,28 @@
         <v>null</v>
       </c>
       <c r="F46" t="str">
-        <v>pomp</v>
+        <v>platavegaarboor</v>
       </c>
       <c r="G46" t="str">
-        <v>Pomp</v>
+        <v>Platte avegaarboor</v>
       </c>
       <c r="H46" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="I46" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="J46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K46" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
+        <v>null</v>
       </c>
       <c r="M46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
+        <v>null</v>
       </c>
       <c r="N46" t="str">
         <v>null</v>
@@ -2704,13 +2704,13 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C47" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.pulsboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.pomp</v>
       </c>
       <c r="D47" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2719,28 +2719,28 @@
         <v>null</v>
       </c>
       <c r="F47" t="str">
-        <v>pulsboor</v>
+        <v>pomp</v>
       </c>
       <c r="G47" t="str">
-        <v>Pulsboor</v>
+        <v>Pomp</v>
       </c>
       <c r="H47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>null</v>
       </c>
       <c r="I47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>null</v>
       </c>
       <c r="J47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="K47" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L47" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="M47" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="N47" t="str">
         <v>null</v>
@@ -2754,13 +2754,13 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsboor</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.pulsslang</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.pulsboor</v>
       </c>
       <c r="D48" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2769,19 +2769,19 @@
         <v>null</v>
       </c>
       <c r="F48" t="str">
-        <v>pulsslang</v>
+        <v>pulsboor</v>
       </c>
       <c r="G48" t="str">
-        <v>Pulsslang (Kogelkleppomp)</v>
+        <v>Pulsboor</v>
       </c>
       <c r="H48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="I48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="J48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K48" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2804,13 +2804,13 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pvcaangescherpt30mm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C49" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.pvcaangescherpt30mm</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.pulsslang</v>
       </c>
       <c r="D49" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2819,19 +2819,19 @@
         <v>null</v>
       </c>
       <c r="F49" t="str">
-        <v>pvcaangescherpt30mm</v>
+        <v>pulsslang</v>
       </c>
       <c r="G49" t="str">
-        <v>PVC aangescherpte buis 30mm</v>
+        <v>Pulsslang (Kogelkleppomp)</v>
       </c>
       <c r="H49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp</v>
       </c>
       <c r="I49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
       </c>
       <c r="J49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
       </c>
       <c r="K49" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2854,13 +2854,13 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pvcaangescherpt30mm</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C50" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ramguts</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.pvcaangescherpt30mm</v>
       </c>
       <c r="D50" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2869,28 +2869,28 @@
         <v>null</v>
       </c>
       <c r="F50" t="str">
-        <v>ramguts</v>
+        <v>pvcaangescherpt30mm</v>
       </c>
       <c r="G50" t="str">
-        <v>Ramguts</v>
+        <v>PVC aangescherpte buis 30mm</v>
       </c>
       <c r="H50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="I50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="J50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="K50" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin</v>
+        <v>null</v>
       </c>
       <c r="M50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin</v>
+        <v>null</v>
       </c>
       <c r="N50" t="str">
         <v>null</v>
@@ -2904,13 +2904,13 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C51" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ramgutslin</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ramguts</v>
       </c>
       <c r="D51" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2919,28 +2919,28 @@
         <v>null</v>
       </c>
       <c r="F51" t="str">
-        <v>ramgutslin</v>
+        <v>ramguts</v>
       </c>
       <c r="G51" t="str">
-        <v>Ramguts met liner</v>
+        <v>Ramguts</v>
       </c>
       <c r="H51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="I51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="J51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin</v>
       </c>
       <c r="K51" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L51" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin</v>
       </c>
       <c r="M51" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin</v>
       </c>
       <c r="N51" t="str">
         <v>null</v>
@@ -2954,13 +2954,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C52" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ramgutszlin</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ramgutslin</v>
       </c>
       <c r="D52" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -2969,10 +2969,10 @@
         <v>null</v>
       </c>
       <c r="F52" t="str">
-        <v>ramgutszlin</v>
+        <v>ramgutslin</v>
       </c>
       <c r="G52" t="str">
-        <v>Ramguts zonder liner</v>
+        <v>Ramguts met liner</v>
       </c>
       <c r="H52" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts</v>
@@ -3004,13 +3004,13 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramkernboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C53" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ramkernboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ramgutszlin</v>
       </c>
       <c r="D53" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3019,19 +3019,19 @@
         <v>null</v>
       </c>
       <c r="F53" t="str">
-        <v>ramkernboor</v>
+        <v>ramgutszlin</v>
       </c>
       <c r="G53" t="str">
-        <v>Ramkernboor</v>
+        <v>Ramguts zonder liner</v>
       </c>
       <c r="H53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts</v>
       </c>
       <c r="I53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts</v>
       </c>
       <c r="J53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts</v>
       </c>
       <c r="K53" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3054,13 +3054,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramkernboor</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C54" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ring</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ramkernboor</v>
       </c>
       <c r="D54" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3069,28 +3069,28 @@
         <v>null</v>
       </c>
       <c r="F54" t="str">
-        <v>ring</v>
+        <v>ramkernboor</v>
       </c>
       <c r="G54" t="str">
-        <v>Ring</v>
+        <v>Ramkernboor</v>
       </c>
       <c r="H54" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
       </c>
       <c r="I54" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
       </c>
       <c r="J54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
       </c>
       <c r="K54" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3</v>
+        <v>null</v>
       </c>
       <c r="M54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3</v>
+        <v>null</v>
       </c>
       <c r="N54" t="str">
         <v>null</v>
@@ -3104,13 +3104,13 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/riversideboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C55" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.riversideboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.ring</v>
       </c>
       <c r="D55" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3119,28 +3119,28 @@
         <v>null</v>
       </c>
       <c r="F55" t="str">
-        <v>riversideboor</v>
+        <v>ring</v>
       </c>
       <c r="G55" t="str">
-        <v>Riverside boor</v>
+        <v>Ring</v>
       </c>
       <c r="H55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>null</v>
       </c>
       <c r="I55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>null</v>
       </c>
       <c r="J55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckyring|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3</v>
       </c>
       <c r="K55" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L55" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckyring</v>
       </c>
       <c r="M55" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckyring|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3</v>
       </c>
       <c r="N55" t="str">
         <v>null</v>
@@ -3154,13 +3154,13 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rollenbeitel</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/riversideboor</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C56" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.rollenbeitel</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.riversideboor</v>
       </c>
       <c r="D56" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3169,10 +3169,10 @@
         <v>null</v>
       </c>
       <c r="F56" t="str">
-        <v>rollenbeitel</v>
+        <v>riversideboor</v>
       </c>
       <c r="G56" t="str">
-        <v>Rollenbeitel</v>
+        <v>Riverside boor</v>
       </c>
       <c r="H56" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
@@ -3204,13 +3204,13 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rollenbeitel</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C57" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.rvsstrooiselkader25cm</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.rollenbeitel</v>
       </c>
       <c r="D57" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3219,19 +3219,19 @@
         <v>null</v>
       </c>
       <c r="F57" t="str">
-        <v>rvsstrooiselkader25cm</v>
+        <v>rollenbeitel</v>
       </c>
       <c r="G57" t="str">
-        <v>RVS Strooiselkader zijde 25cm</v>
+        <v>Rollenbeitel</v>
       </c>
       <c r="H57" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="I57" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="J57" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K57" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3254,13 +3254,13 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/schep</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C58" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.schep</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.rvsstrooiselkader25cm</v>
       </c>
       <c r="D58" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3269,19 +3269,19 @@
         <v>null</v>
       </c>
       <c r="F58" t="str">
-        <v>schep</v>
+        <v>rvsstrooiselkader25cm</v>
       </c>
       <c r="G58" t="str">
-        <v>Schep</v>
+        <v>RVS Strooiselkader zijde 25cm</v>
       </c>
       <c r="H58" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader</v>
       </c>
       <c r="I58" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader</v>
       </c>
       <c r="J58" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader</v>
       </c>
       <c r="K58" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3304,13 +3304,13 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/schep</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C59" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.scheppot</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.schep</v>
       </c>
       <c r="D59" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3319,19 +3319,19 @@
         <v>null</v>
       </c>
       <c r="F59" t="str">
-        <v>scheppot</v>
+        <v>schep</v>
       </c>
       <c r="G59" t="str">
-        <v>Scheppot</v>
+        <v>Schep</v>
       </c>
       <c r="H59" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
+        <v>null</v>
       </c>
       <c r="I59" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
+        <v>null</v>
       </c>
       <c r="J59" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
+        <v>null</v>
       </c>
       <c r="K59" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3354,13 +3354,13 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slagboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C60" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.slagboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.scheppot</v>
       </c>
       <c r="D60" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3369,19 +3369,19 @@
         <v>null</v>
       </c>
       <c r="F60" t="str">
-        <v>slagboor</v>
+        <v>scheppot</v>
       </c>
       <c r="G60" t="str">
-        <v>Slagboor</v>
+        <v>Scheppot</v>
       </c>
       <c r="H60" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="I60" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="J60" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="K60" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3404,13 +3404,13 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slagboor</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C61" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.slangenpomp</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.slagboor</v>
       </c>
       <c r="D61" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3419,19 +3419,19 @@
         <v>null</v>
       </c>
       <c r="F61" t="str">
-        <v>slangenpomp</v>
+        <v>slagboor</v>
       </c>
       <c r="G61" t="str">
-        <v>Slangenpomp of Peristaltische pomp</v>
+        <v>Slagboor</v>
       </c>
       <c r="H61" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="I61" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="J61" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K61" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3454,13 +3454,13 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spade</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C62" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.spade</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.slangenpomp</v>
       </c>
       <c r="D62" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3469,19 +3469,19 @@
         <v>null</v>
       </c>
       <c r="F62" t="str">
-        <v>spade</v>
+        <v>slangenpomp</v>
       </c>
       <c r="G62" t="str">
-        <v>Spade</v>
+        <v>Slangenpomp of Peristaltische pomp</v>
       </c>
       <c r="H62" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="I62" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="J62" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="K62" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3504,13 +3504,13 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spiraalboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spade</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C63" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.spiraalboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.spade</v>
       </c>
       <c r="D63" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3519,19 +3519,19 @@
         <v>null</v>
       </c>
       <c r="F63" t="str">
-        <v>spiraalboor</v>
+        <v>spade</v>
       </c>
       <c r="G63" t="str">
-        <v>Spiraalboor</v>
+        <v>Spade</v>
       </c>
       <c r="H63" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>null</v>
       </c>
       <c r="I63" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>null</v>
       </c>
       <c r="J63" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>null</v>
       </c>
       <c r="K63" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3554,13 +3554,13 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spoelboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spiraalboor</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C64" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.spoelboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.spiraalboor</v>
       </c>
       <c r="D64" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3569,10 +3569,10 @@
         <v>null</v>
       </c>
       <c r="F64" t="str">
-        <v>spoelboor</v>
+        <v>spiraalboor</v>
       </c>
       <c r="G64" t="str">
-        <v>Spoelboor</v>
+        <v>Spiraalboor</v>
       </c>
       <c r="H64" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
@@ -3604,13 +3604,13 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spoelboor</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C65" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekbus</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.spoelboor</v>
       </c>
       <c r="D65" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3619,28 +3619,28 @@
         <v>null</v>
       </c>
       <c r="F65" t="str">
-        <v>steekbus</v>
+        <v>spoelboor</v>
       </c>
       <c r="G65" t="str">
-        <v>Steekbus</v>
+        <v>Spoelboor</v>
       </c>
       <c r="H65" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="I65" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="J65" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggeslagen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K65" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L65" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig</v>
+        <v>null</v>
       </c>
       <c r="M65" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggeslagen</v>
+        <v>null</v>
       </c>
       <c r="N65" t="str">
         <v>null</v>
@@ -3654,13 +3654,13 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C66" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekguts</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekbus</v>
       </c>
       <c r="D66" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3669,10 +3669,10 @@
         <v>null</v>
       </c>
       <c r="F66" t="str">
-        <v>steekguts</v>
+        <v>steekbus</v>
       </c>
       <c r="G66" t="str">
-        <v>Steekguts</v>
+        <v>Steekbus</v>
       </c>
       <c r="H66" t="str">
         <v>null</v>
@@ -3681,16 +3681,16 @@
         <v>null</v>
       </c>
       <c r="J66" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggeslagen</v>
       </c>
       <c r="K66" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L66" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig</v>
       </c>
       <c r="M66" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggeslagen</v>
       </c>
       <c r="N66" t="str">
         <v>null</v>
@@ -3704,13 +3704,13 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C67" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekguts20mm</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekguts</v>
       </c>
       <c r="D67" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3719,28 +3719,28 @@
         <v>null</v>
       </c>
       <c r="F67" t="str">
-        <v>steekguts20mm</v>
+        <v>steekguts</v>
       </c>
       <c r="G67" t="str">
-        <v>Steekguts 20mm</v>
+        <v>Steekguts</v>
       </c>
       <c r="H67" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
+        <v>null</v>
       </c>
       <c r="I67" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
+        <v>null</v>
       </c>
       <c r="J67" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm</v>
       </c>
       <c r="K67" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L67" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm</v>
       </c>
       <c r="M67" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm</v>
       </c>
       <c r="N67" t="str">
         <v>null</v>
@@ -3754,13 +3754,13 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C68" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekguts25mm</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekguts20mm</v>
       </c>
       <c r="D68" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3769,10 +3769,10 @@
         <v>null</v>
       </c>
       <c r="F68" t="str">
-        <v>steekguts25mm</v>
+        <v>steekguts20mm</v>
       </c>
       <c r="G68" t="str">
-        <v>Steekguts 25mm</v>
+        <v>Steekguts 20mm</v>
       </c>
       <c r="H68" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
@@ -3804,13 +3804,13 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C69" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekguts30mm</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekguts25mm</v>
       </c>
       <c r="D69" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3819,10 +3819,10 @@
         <v>null</v>
       </c>
       <c r="F69" t="str">
-        <v>steekguts30mm</v>
+        <v>steekguts25mm</v>
       </c>
       <c r="G69" t="str">
-        <v>Steekguts 30mm</v>
+        <v>Steekguts 25mm</v>
       </c>
       <c r="H69" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
@@ -3854,13 +3854,13 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C70" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekhuls</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekguts30mm</v>
       </c>
       <c r="D70" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3869,28 +3869,28 @@
         <v>null</v>
       </c>
       <c r="F70" t="str">
-        <v>steekhuls</v>
+        <v>steekguts30mm</v>
       </c>
       <c r="G70" t="str">
-        <v>Steekhuls</v>
+        <v>Steekguts 30mm</v>
       </c>
       <c r="H70" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
       </c>
       <c r="I70" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
       </c>
       <c r="J70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts</v>
       </c>
       <c r="K70" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3</v>
+        <v>null</v>
       </c>
       <c r="M70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3</v>
+        <v>null</v>
       </c>
       <c r="N70" t="str">
         <v>null</v>
@@ -3904,43 +3904,43 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls</v>
+      </c>
+      <c r="B71" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C71" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekhuls</v>
+      </c>
+      <c r="D71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+      </c>
+      <c r="E71" t="str">
+        <v>null</v>
+      </c>
+      <c r="F71" t="str">
+        <v>steekhuls</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Steekhuls</v>
+      </c>
+      <c r="H71" t="str">
+        <v>null</v>
+      </c>
+      <c r="I71" t="str">
+        <v>null</v>
+      </c>
+      <c r="J71" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3</v>
       </c>
-      <c r="B71" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
-      </c>
-      <c r="C71" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekhuls192cm3</v>
-      </c>
-      <c r="D71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
-      </c>
-      <c r="E71" t="str">
-        <v>null</v>
-      </c>
-      <c r="F71" t="str">
-        <v>steekhuls192cm3</v>
-      </c>
-      <c r="G71" t="str">
-        <v>Steekhuls 192cm3</v>
-      </c>
-      <c r="H71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls</v>
-      </c>
-      <c r="I71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls</v>
-      </c>
-      <c r="J71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls</v>
-      </c>
       <c r="K71" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L71" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3</v>
       </c>
       <c r="M71" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3</v>
       </c>
       <c r="N71" t="str">
         <v>null</v>
@@ -3954,13 +3954,13 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steenboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C72" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steenboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steekhuls192cm3</v>
       </c>
       <c r="D72" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -3969,19 +3969,19 @@
         <v>null</v>
       </c>
       <c r="F72" t="str">
-        <v>steenboor</v>
+        <v>steekhuls192cm3</v>
       </c>
       <c r="G72" t="str">
-        <v>Steenboor</v>
+        <v>Steekhuls 192cm3</v>
       </c>
       <c r="H72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls</v>
       </c>
       <c r="I72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls</v>
       </c>
       <c r="J72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls</v>
       </c>
       <c r="K72" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4004,13 +4004,13 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steenboor</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C73" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.strooiselkader</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.steenboor</v>
       </c>
       <c r="D73" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4019,28 +4019,28 @@
         <v>null</v>
       </c>
       <c r="F73" t="str">
-        <v>strooiselkader</v>
+        <v>steenboor</v>
       </c>
       <c r="G73" t="str">
-        <v>Strooiselkader</v>
+        <v>Steenboor</v>
       </c>
       <c r="H73" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="I73" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="J73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K73" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm</v>
+        <v>null</v>
       </c>
       <c r="M73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm</v>
+        <v>null</v>
       </c>
       <c r="N73" t="str">
         <v>null</v>
@@ -4054,13 +4054,13 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trilboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C74" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.trilboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.strooiselkader</v>
       </c>
       <c r="D74" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4069,28 +4069,28 @@
         <v>null</v>
       </c>
       <c r="F74" t="str">
-        <v>trilboor</v>
+        <v>strooiselkader</v>
       </c>
       <c r="G74" t="str">
-        <v>Trilboor</v>
+        <v>Strooiselkader</v>
       </c>
       <c r="H74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>null</v>
       </c>
       <c r="I74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>null</v>
       </c>
       <c r="J74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm</v>
       </c>
       <c r="K74" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L74" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm</v>
       </c>
       <c r="M74" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm</v>
       </c>
       <c r="N74" t="str">
         <v>null</v>
@@ -4104,13 +4104,13 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/tripkernbuis</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trilboor</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C75" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.tripkernbuis</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.trilboor</v>
       </c>
       <c r="D75" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4119,19 +4119,19 @@
         <v>null</v>
       </c>
       <c r="F75" t="str">
-        <v>tripkernbuis</v>
+        <v>trilboor</v>
       </c>
       <c r="G75" t="str">
-        <v>Trippelwandige kernbuis (CS-TT)</v>
+        <v>Trilboor</v>
       </c>
       <c r="H75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="I75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="J75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K75" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4154,13 +4154,13 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trippelwandigekernbuis</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/tripkernbuis</v>
       </c>
       <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C76" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.trippelwandigekernbuis</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.tripkernbuis</v>
       </c>
       <c r="D76" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4169,19 +4169,19 @@
         <v>null</v>
       </c>
       <c r="F76" t="str">
-        <v>trippelwandigekernbuis</v>
+        <v>tripkernbuis</v>
       </c>
       <c r="G76" t="str">
         <v>Trippelwandige kernbuis (CS-TT)</v>
       </c>
       <c r="H76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
       </c>
       <c r="I76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
       </c>
       <c r="J76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor</v>
       </c>
       <c r="K76" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4204,13 +4204,13 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trippelwandigekernbuis</v>
       </c>
       <c r="B77" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C77" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.vacuumpomp</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.trippelwandigekernbuis</v>
       </c>
       <c r="D77" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4219,19 +4219,19 @@
         <v>null</v>
       </c>
       <c r="F77" t="str">
-        <v>vacuumpomp</v>
+        <v>trippelwandigekernbuis</v>
       </c>
       <c r="G77" t="str">
-        <v>Vacuumpomp</v>
+        <v>Trippelwandige kernbuis (CS-TT)</v>
       </c>
       <c r="H77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="I77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="J77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis</v>
       </c>
       <c r="K77" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4254,13 +4254,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/veenboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp</v>
       </c>
       <c r="B78" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C78" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.veenboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.vacuumpomp</v>
       </c>
       <c r="D78" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4269,19 +4269,19 @@
         <v>null</v>
       </c>
       <c r="F78" t="str">
-        <v>veenboor</v>
+        <v>vacuumpomp</v>
       </c>
       <c r="G78" t="str">
-        <v>Veenboor</v>
+        <v>Vacuumpomp</v>
       </c>
       <c r="H78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="I78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="J78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="K78" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4304,13 +4304,13 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vibrocore</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/veenboor</v>
       </c>
       <c r="B79" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C79" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.vibrocore</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.veenboor</v>
       </c>
       <c r="D79" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4319,10 +4319,10 @@
         <v>null</v>
       </c>
       <c r="F79" t="str">
-        <v>vibrocore</v>
+        <v>veenboor</v>
       </c>
       <c r="G79" t="str">
-        <v>Vibrocore</v>
+        <v>Veenboor</v>
       </c>
       <c r="H79" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
@@ -4354,13 +4354,13 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vibrocore</v>
       </c>
       <c r="B80" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C80" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.waterfles</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.vibrocore</v>
       </c>
       <c r="D80" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4369,19 +4369,19 @@
         <v>null</v>
       </c>
       <c r="F80" t="str">
-        <v>waterfles</v>
+        <v>vibrocore</v>
       </c>
       <c r="G80" t="str">
-        <v>Waterfles</v>
+        <v>Vibrocore</v>
       </c>
       <c r="H80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="I80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="J80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K80" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4404,43 +4404,43 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles</v>
+      </c>
+      <c r="B81" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C81" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.waterfles</v>
+      </c>
+      <c r="D81" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+      </c>
+      <c r="E81" t="str">
+        <v>null</v>
+      </c>
+      <c r="F81" t="str">
+        <v>waterfles</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Waterfles</v>
+      </c>
+      <c r="H81" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
-      <c r="B81" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
-      </c>
-      <c r="C81" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.watermonsternemer</v>
-      </c>
-      <c r="D81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
-      </c>
-      <c r="E81" t="str">
-        <v>null</v>
-      </c>
-      <c r="F81" t="str">
-        <v>watermonsternemer</v>
-      </c>
-      <c r="G81" t="str">
-        <v>Watermonsternemer</v>
-      </c>
-      <c r="H81" t="str">
-        <v>null</v>
-      </c>
       <c r="I81" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="J81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="K81" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap</v>
+        <v>null</v>
       </c>
       <c r="M81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap</v>
+        <v>null</v>
       </c>
       <c r="N81" t="str">
         <v>null</v>
@@ -4454,13 +4454,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="B82" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C82" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.watertrap</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.watermonsternemer</v>
       </c>
       <c r="D82" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4469,28 +4469,28 @@
         <v>null</v>
       </c>
       <c r="F82" t="str">
-        <v>watertrap</v>
+        <v>watermonsternemer</v>
       </c>
       <c r="G82" t="str">
-        <v>Watertrap</v>
+        <v>Watermonsternemer</v>
       </c>
       <c r="H82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
+        <v>null</v>
       </c>
       <c r="I82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
+        <v>null</v>
       </c>
       <c r="J82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap</v>
       </c>
       <c r="K82" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L82" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap</v>
       </c>
       <c r="M82" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap</v>
       </c>
       <c r="N82" t="str">
         <v>null</v>
@@ -4504,13 +4504,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap</v>
       </c>
       <c r="B83" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C83" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.zuigboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.watertrap</v>
       </c>
       <c r="D83" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4519,19 +4519,19 @@
         <v>null</v>
       </c>
       <c r="F83" t="str">
-        <v>zuigboor</v>
+        <v>watertrap</v>
       </c>
       <c r="G83" t="str">
-        <v>Zuigboor</v>
+        <v>Watertrap</v>
       </c>
       <c r="H83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="I83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="J83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer</v>
       </c>
       <c r="K83" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4554,13 +4554,13 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigerboor</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigboor</v>
       </c>
       <c r="B84" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C84" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.zuigerboor</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.zuigboor</v>
       </c>
       <c r="D84" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4569,10 +4569,10 @@
         <v>null</v>
       </c>
       <c r="F84" t="str">
-        <v>zuigerboor</v>
+        <v>zuigboor</v>
       </c>
       <c r="G84" t="str">
-        <v>Zuigerboor</v>
+        <v>Zuigboor</v>
       </c>
       <c r="H84" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
@@ -4604,13 +4604,13 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigerboor</v>
       </c>
       <c r="B85" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C85" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.zuigpomp</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.zuigerboor</v>
       </c>
       <c r="D85" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
@@ -4619,28 +4619,28 @@
         <v>null</v>
       </c>
       <c r="F85" t="str">
-        <v>zuigpomp</v>
+        <v>zuigerboor</v>
       </c>
       <c r="G85" t="str">
-        <v>Zuigpomp</v>
+        <v>Zuigerboor</v>
       </c>
       <c r="H85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="I85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="J85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor</v>
       </c>
       <c r="K85" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
       </c>
       <c r="L85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp</v>
+        <v>null</v>
       </c>
       <c r="M85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp</v>
+        <v>null</v>
       </c>
       <c r="N85" t="str">
         <v>null</v>
@@ -4654,57 +4654,107 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
       </c>
       <c r="B86" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C86" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsinstrument.zuigpomp</v>
+      </c>
+      <c r="D86" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+      </c>
+      <c r="E86" t="str">
+        <v>null</v>
+      </c>
+      <c r="F86" t="str">
+        <v>zuigpomp</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Zuigpomp</v>
+      </c>
+      <c r="H86" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
+      </c>
+      <c r="I86" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp</v>
+      </c>
+      <c r="J86" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp</v>
+      </c>
+      <c r="K86" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+      </c>
+      <c r="L86" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp</v>
+      </c>
+      <c r="M86" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp</v>
+      </c>
+      <c r="N86" t="str">
+        <v>null</v>
+      </c>
+      <c r="O86" t="str">
+        <v>null</v>
+      </c>
+      <c r="P86" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsinstrument</v>
+      </c>
+      <c r="B87" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C87" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.bemonsteringsinstrument</v>
       </c>
-      <c r="D86" t="str">
-        <v>null</v>
-      </c>
-      <c r="E86" t="str">
-        <v>null</v>
-      </c>
-      <c r="F86" t="str">
+      <c r="D87" t="str">
+        <v>null</v>
+      </c>
+      <c r="E87" t="str">
+        <v>null</v>
+      </c>
+      <c r="F87" t="str">
         <v>bemonsteringsinstrument</v>
       </c>
-      <c r="G86" t="str">
+      <c r="G87" t="str">
         <v>Codelijst bemonsteringsinstrument.</v>
       </c>
-      <c r="H86" t="str">
-        <v>null</v>
-      </c>
-      <c r="I86" t="str">
-        <v>null</v>
-      </c>
-      <c r="J86" t="str">
-        <v>null</v>
-      </c>
-      <c r="K86" t="str">
-        <v>null</v>
-      </c>
-      <c r="L86" t="str">
-        <v>null</v>
-      </c>
-      <c r="M86" t="str">
-        <v>null</v>
-      </c>
-      <c r="N86" t="str">
+      <c r="H87" t="str">
+        <v>null</v>
+      </c>
+      <c r="I87" t="str">
+        <v>null</v>
+      </c>
+      <c r="J87" t="str">
+        <v>null</v>
+      </c>
+      <c r="K87" t="str">
+        <v>null</v>
+      </c>
+      <c r="L87" t="str">
+        <v>null</v>
+      </c>
+      <c r="M87" t="str">
+        <v>null</v>
+      </c>
+      <c r="N87" t="str">
         <v>Beschrijving welke procedure werd gevolgd bij de bemonstering.</v>
       </c>
-      <c r="O86" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualock|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/avegaarbooras|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/diamantboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubbelwandigekernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/edelmanboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkelwandigkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/geoprobe|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/graafmachine|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/grijpboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/hamerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/handboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorhsas|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorlin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lansboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lepelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthamer|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthevel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/piston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/platavegaarboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pvcaangescherpt30mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramkernboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/riversideboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rollenbeitel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/schep|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slagboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spade|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spiraalboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spoelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trilboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/tripkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trippelwandigekernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/veenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vibrocore|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
-      </c>
-      <c r="P86" t="str">
+      <c r="O87" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermangeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ackermansteekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualock|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/aqualockpiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/avegaarbooras|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/balgpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/boor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/bovcentrifugaalpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/buis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/diamantboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dikwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpomp12v|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dompelpompond|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubbelwandigekernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dubkleppomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandig|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandigepiston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggedrukt|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/dunwandiggeslagen|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/edelmanboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkelwandigkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/enkkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/geoprobe|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/graafmachine|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/grijpboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/hamerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/handboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorhsas|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/holavegaarboorlin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckyring|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kopeckysteekset100cm3|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/kraan|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lansboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/lepelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthamer|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/luchthevel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/perspomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/piston|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/platavegaarboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pulsslang|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/pvcaangescherpt30mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramguts|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutslin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramgutszlin|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ramkernboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/ring|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/riversideboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rollenbeitel|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/rvsstrooiselkader25cm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/schep|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/scheppot|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slagboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/slangenpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spade|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spiraalboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/spoelboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekbus|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts20mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts25mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts30mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekguts|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls192cm3|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steekhuls|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/steenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/strooiselkader|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trilboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/tripkernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/trippelwandigekernbuis|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vacuumpomp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/veenboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/vibrocore|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/waterfles|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watermonsternemer|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/watertrap|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigerboor|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsinstrument/zuigpomp</v>
+      </c>
+      <c r="P87" t="str">
         <v>Beschrijving welke procedure werd gevolgd bij de bemonstering.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P86"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P87"/>
   </ignoredErrors>
 </worksheet>
 </file>